--- a/Resultados/Material/ResNet/Tentativa 1.xlsx
+++ b/Resultados/Material/ResNet/Tentativa 1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EsteLivro" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Material\Modelos\Tentativa 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\Material\ResNet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9238A098-51DE-4205-B428-ED4D862E5905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A685B8DA-C419-4C7B-8CC9-04E703588D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="3" activeTab="3" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -387,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -501,6 +501,12 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -525,14 +531,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1534,7 +1532,7 @@
   <sheetPr codeName="Folha1"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B12" sqref="B12:E12"/>
     </sheetView>
   </sheetViews>
@@ -1735,23 +1733,23 @@
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="47">
         <v>2.5315318107604901</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="45">
+      <c r="B13" s="47">
         <v>0.96445131301879805</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
@@ -2114,7 +2112,7 @@
   <sheetPr codeName="Folha4"/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -2124,11 +2122,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C2" s="41">
@@ -2142,7 +2140,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="47" t="str">
+      <c r="A3" s="49" t="str">
         <f>"Verdadeiro"</f>
         <v>Verdadeiro</v>
       </c>
@@ -2164,7 +2162,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="47"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -2183,7 +2181,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="47"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -2274,14 +2272,14 @@
       <c r="H1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
     </row>
     <row r="2" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="49" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="24">
@@ -2320,7 +2318,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="47"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="20">
         <v>0</v>
       </c>
@@ -2341,7 +2339,7 @@
       <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="47"/>
+      <c r="A4" s="49"/>
       <c r="B4" s="20">
         <v>13</v>
       </c>
@@ -2372,7 +2370,7 @@
       <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="52" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="31">
@@ -2392,7 +2390,7 @@
       <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="51"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="20">
         <v>1</v>
       </c>
@@ -2410,7 +2408,7 @@
       <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="52"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="20">
         <v>8</v>
       </c>
@@ -2433,7 +2431,7 @@
       <c r="E9" s="26"/>
     </row>
     <row r="10" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="50" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="24">
@@ -2442,7 +2440,7 @@
       <c r="C10" s="24">
         <v>2</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="46">
         <f>B10/SUM(B10:B12)</f>
         <v>0.99837133550488599</v>
       </c>
@@ -2452,14 +2450,14 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="48"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="20">
         <v>1</v>
       </c>
       <c r="C11" s="20">
         <v>0</v>
       </c>
-      <c r="D11" s="53">
+      <c r="D11" s="45">
         <f>B11/SUM(B10:B12)</f>
         <v>1.6286644951140066E-3</v>
       </c>
@@ -2469,7 +2467,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="48"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="20">
         <v>0</v>
       </c>
@@ -2835,19 +2833,19 @@
       <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="55">
+      <c r="B9" s="6">
         <f>INDEX($A$2:$A$4,MATCH(B5,B2:B4,0))</f>
         <v>2</v>
       </c>
-      <c r="C9" s="55">
+      <c r="C9" s="6">
         <f>INDEX($A$2:$A$4,MATCH(C5,C2:C4,0))</f>
         <v>0</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="6">
         <f>INDEX($A$2:$A$4,MATCH(D5,D2:D4,0))</f>
         <v>1</v>
       </c>
-      <c r="E9" s="55">
+      <c r="E9" s="6">
         <f>INDEX($A$2:$A$4,MATCH(E5,E2:E4,0))</f>
         <v>1</v>
       </c>
@@ -2875,19 +2873,19 @@
       <c r="A10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="56">
+      <c r="B10" s="7">
         <f>INDEX($A$2:$A$4,MATCH(B6,B2:B4,0))</f>
         <v>1</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="7">
         <f>INDEX($A$2:$A$4,MATCH(C6,C2:C4,0))</f>
         <v>1</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="7">
         <f>INDEX($A$2:$A$4,MATCH(D6,D2:D4,0))</f>
         <v>2</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="7">
         <f>INDEX($A$2:$A$4,MATCH(E6,E2:E4,0))</f>
         <v>2</v>
       </c>

--- a/Resultados/Material/ResNet/Tentativa 1.xlsx
+++ b/Resultados/Material/ResNet/Tentativa 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\Material\ResNet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEEB61D-93ED-4951-9811-37E67F481A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6673A34-A317-4FE4-AFB3-0FE48B8E8D0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
   </bookViews>
@@ -1550,14 +1550,14 @@
   <sheetPr codeName="Folha1"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1885,7 +1885,7 @@
   <dimension ref="N1:O44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2096,7 +2096,9 @@
   <sheetPr codeName="Folha2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
@@ -2110,7 +2112,9 @@
   <sheetPr codeName="Folha3"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
@@ -2125,7 +2129,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F6"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2256,7 +2260,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2264,15 +2268,16 @@
     <col min="1" max="1" width="8.6328125" style="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.6328125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.6328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.26953125" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.90625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="26" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.54296875" customWidth="1"/>
     <col min="7" max="7" width="6.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1796875" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.7265625" style="9"/>
     <col min="10" max="10" width="3.81640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.6328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="4.36328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3.81640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.36328125" style="9" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
@@ -2531,25 +2536,25 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H8" sqref="H8"/>
+      <selection pane="topRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7265625" style="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.54296875" style="33" customWidth="1"/>
     <col min="7" max="7" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="105.1796875" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.90625" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" style="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="36" t="s">
         <v>30</v>
       </c>
@@ -2582,7 +2587,7 @@
       </c>
       <c r="K1"/>
     </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="15">
         <v>0</v>
       </c>
@@ -2620,7 +2625,7 @@
       </c>
       <c r="K2"/>
     </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="15">
         <v>1</v>
       </c>
@@ -2658,7 +2663,7 @@
       </c>
       <c r="K3"/>
     </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="15">
         <v>2</v>
       </c>
@@ -2696,7 +2701,7 @@
       </c>
       <c r="K4"/>
     </row>
-    <row r="5" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2736,7 +2741,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
@@ -2776,7 +2781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>0</v>
       </c>
@@ -2816,7 +2821,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>1</v>
       </c>
@@ -2856,7 +2861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
@@ -2896,7 +2901,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
@@ -2937,7 +2942,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="G11">
         <f>SUM(G5:G10)+B7</f>
